--- a/data/trans_orig/Q20A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.07282872226188304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06649378813461856</v>
+        <v>0.06649378813461855</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07555488082057744</v>
@@ -681,7 +681,7 @@
         <v>0.1078134488935052</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0949074888633515</v>
+        <v>0.09490748886335149</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0845817357863039</v>
@@ -693,7 +693,7 @@
         <v>0.08847217940339433</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07985006472737588</v>
+        <v>0.07985006472737587</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05224349728024838</v>
+        <v>0.05187556186728692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03328368122279813</v>
+        <v>0.03205999876914439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04573940727017165</v>
+        <v>0.0450161317720453</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0495227848966925</v>
+        <v>0.04619725439537836</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04349237625394313</v>
+        <v>0.04375344854919148</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1036454633496074</v>
+        <v>0.1024544514582748</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07612014788665181</v>
+        <v>0.07239411020942603</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06705287559895347</v>
+        <v>0.06555167294775374</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05737280970874029</v>
+        <v>0.05859821809090385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07109153911396199</v>
+        <v>0.07238955825585404</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0665763445270549</v>
+        <v>0.06667604378572654</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06128689920940253</v>
+        <v>0.0625277320145473</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1644161440018665</v>
+        <v>0.1633630268103704</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09278761942492086</v>
+        <v>0.09543510539785291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1119053354895164</v>
+        <v>0.1101006930118154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09562210998865955</v>
+        <v>0.09151638928939919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1158557267269127</v>
+        <v>0.1159059200217345</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2358744920572756</v>
+        <v>0.2485819797016435</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1559168535462767</v>
+        <v>0.1513321296603388</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.146452376494628</v>
+        <v>0.1489921432290195</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1270348307133229</v>
+        <v>0.131225462299542</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1367065466297955</v>
+        <v>0.1386534385599856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1153418565096008</v>
+        <v>0.1171367438957681</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1035489451187303</v>
+        <v>0.1044351872869451</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.06944176161482417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05845079247880739</v>
+        <v>0.05845079247880738</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08665328151135057</v>
@@ -817,7 +817,7 @@
         <v>0.1177755717134294</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08829418846090509</v>
+        <v>0.08829418846090507</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06686160406472681</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0263509071555209</v>
+        <v>0.02684303812054235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04241976251971341</v>
+        <v>0.04197897585315856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04437470107687297</v>
+        <v>0.04274343344825333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03877468072446682</v>
+        <v>0.03687264301496273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05917680524054488</v>
+        <v>0.05775135344988518</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06860877528173191</v>
+        <v>0.06616574914053391</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07955991409638281</v>
+        <v>0.07953232303208223</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06405855967002255</v>
+        <v>0.06610813298204249</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04867928904085336</v>
+        <v>0.05000413950108525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06514006492652188</v>
+        <v>0.06520217834499327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06760120593934975</v>
+        <v>0.06751431300606349</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05531483257551169</v>
+        <v>0.05393886156538871</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07700459445238747</v>
+        <v>0.07890609642735349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5770868360910687</v>
+        <v>0.5180465163732805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1165129329152707</v>
+        <v>0.1154922642276365</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08994339669035159</v>
+        <v>0.08831194330133955</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1266843414783067</v>
+        <v>0.1243070459481925</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.147023930786823</v>
+        <v>0.139908499972181</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1759517319243532</v>
+        <v>0.1748717343342388</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1210641023746089</v>
+        <v>0.1247146305812345</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09008418604220353</v>
+        <v>0.09061551755315572</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4291048246669315</v>
+        <v>0.3567728816944939</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1314168827232968</v>
+        <v>0.1259630775261988</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09328652348421584</v>
+        <v>0.09175058575375067</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02821574655185756</v>
+        <v>0.0275103011142931</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07291146183756375</v>
+        <v>0.07043079071935253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06390651040519842</v>
+        <v>0.0677167285413869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07133524497332673</v>
+        <v>0.07244938048427912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05628198585138577</v>
+        <v>0.060002513688232</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06742486692673644</v>
+        <v>0.06671748911568665</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05949700737841958</v>
+        <v>0.06125531206864453</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06997300434254453</v>
+        <v>0.0729380460527579</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04083722111521404</v>
+        <v>0.04037968494685834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07973832425618921</v>
+        <v>0.07989900984350042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07213863309751765</v>
+        <v>0.07281853786069137</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08376873521668414</v>
+        <v>0.08218766681014929</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07386147605693177</v>
+        <v>0.07559731948318527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1413259484960986</v>
+        <v>0.1362065898619148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2245429503404775</v>
+        <v>0.2503939473878027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3713311499232001</v>
+        <v>0.3307947139862036</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1497848834184948</v>
+        <v>0.1570210633208974</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1619813892676581</v>
+        <v>0.1729858650222058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2138441737122949</v>
+        <v>0.2243764019889967</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2048384264583951</v>
+        <v>0.2051139926415179</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08402165539347523</v>
+        <v>0.08260048454121406</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1367330783522654</v>
+        <v>0.1317022996872584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2018854960029064</v>
+        <v>0.192488432462573</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2767078855267187</v>
+        <v>0.3545848790755752</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.06387225238817133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09505919551103614</v>
+        <v>0.09505919551103613</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1262266668743977</v>
@@ -1101,7 +1101,7 @@
         <v>0.08674116854567457</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09146076383153889</v>
+        <v>0.09146076383153892</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05058017101055148</v>
+        <v>0.05142075849090497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06954011588676175</v>
+        <v>0.06804510358838357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04802092519624421</v>
+        <v>0.04803063728965917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05888253422161448</v>
+        <v>0.05780101842407469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0919506212633459</v>
+        <v>0.09264425357377745</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09710985553115141</v>
+        <v>0.09526200720725506</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08930888872941904</v>
+        <v>0.09087719150676253</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06587109723464991</v>
+        <v>0.06709587518386829</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0719915793125646</v>
+        <v>0.07265688056284263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08566681530472495</v>
+        <v>0.08453189383202551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0711810789949652</v>
+        <v>0.06991664721297396</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06989036094212665</v>
+        <v>0.0686042157360244</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1040156277176579</v>
+        <v>0.1098359343071519</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1200459072079275</v>
+        <v>0.1207007868211791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08554191436267919</v>
+        <v>0.08459245306474221</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2238979247299601</v>
+        <v>0.2328688100699796</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1738948784871785</v>
+        <v>0.1841155859056246</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1626840342588197</v>
+        <v>0.1600245932329868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1666729077587725</v>
+        <v>0.1666876923417989</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1114403645717578</v>
+        <v>0.1114408455194433</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1205815017913801</v>
+        <v>0.1182606719155903</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1252740886898533</v>
+        <v>0.1241989392602228</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.10860733089411</v>
+        <v>0.1092202544043162</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1585995888392154</v>
+        <v>0.1659521979216735</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.03793561581142502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1010786303949163</v>
+        <v>0.1010786303949162</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09437881423921871</v>
@@ -1225,7 +1225,7 @@
         <v>0.07117713686673575</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06498979560720364</v>
+        <v>0.06498979560720365</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08709382320606777</v>
@@ -1237,7 +1237,7 @@
         <v>0.05599393848022526</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07965060520599328</v>
+        <v>0.07965060520599326</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04013173201696054</v>
+        <v>0.04340174927835268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06197980007322499</v>
+        <v>0.0639065491062776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02419866276047671</v>
+        <v>0.02507019503250457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07387984107555573</v>
+        <v>0.07342340252311419</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06461546326696653</v>
+        <v>0.06504459661774482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1152516746114236</v>
+        <v>0.1158401980806976</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05194080019522246</v>
+        <v>0.05245383550833296</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0499481123278735</v>
+        <v>0.04829962339536466</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06469934642028694</v>
+        <v>0.06328510941188466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1008967375977377</v>
+        <v>0.1007471888586669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04265503702216621</v>
+        <v>0.04296383029886379</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06511586183940259</v>
+        <v>0.0648203018766309</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1270051395076147</v>
+        <v>0.1357999123531849</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1253528554320194</v>
+        <v>0.1259473463192971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06015521852579206</v>
+        <v>0.06312230564277767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1368138147804314</v>
+        <v>0.1380556750763991</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1660841773227683</v>
+        <v>0.1663606847799928</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2178565948977621</v>
+        <v>0.21378479900003</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09603439050161439</v>
+        <v>0.09912348945733318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08630406531892837</v>
+        <v>0.0860600538958029</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1377477222959748</v>
+        <v>0.129139613976675</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1656983246019841</v>
+        <v>0.1687059777043855</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07198347382275852</v>
+        <v>0.07236578867200273</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09808440190899916</v>
+        <v>0.09902168585889796</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.07700582836879889</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06537039548190895</v>
+        <v>0.06537039548190897</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.08203684623814687</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003010243608160179</v>
+        <v>0.002991069305602413</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01475749346066198</v>
+        <v>0.01474071548335943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02064430710282147</v>
+        <v>0.02269038260773197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.004436612557751167</v>
+        <v>0.004424092370908472</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07421141096861529</v>
+        <v>0.07270778410100816</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07242842261028336</v>
+        <v>0.07079380552601611</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05874215395070628</v>
+        <v>0.05944918434254889</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04865208074556727</v>
+        <v>0.04902765876309054</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0621031802544086</v>
+        <v>0.06159526730377318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06088081971670248</v>
+        <v>0.06205819919415827</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0546623909491684</v>
+        <v>0.05477518646161553</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04077614049208638</v>
+        <v>0.04068060524028074</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04834129181374999</v>
+        <v>0.05112032916864034</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05555317791328752</v>
+        <v>0.05367934236940059</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1012012857968888</v>
+        <v>0.09704742315910161</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07584429525908065</v>
+        <v>0.0781298334357123</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1483675707491621</v>
+        <v>0.1480210475767071</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1153947291435998</v>
+        <v>0.1122840270454692</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1009887584459495</v>
+        <v>0.1021384163965175</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08939321435471391</v>
+        <v>0.09059169066981522</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1218304955736541</v>
+        <v>0.1185787087910294</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09650563336574598</v>
+        <v>0.09512789435685351</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09033776862041003</v>
+        <v>0.09281156280347135</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07512466978500255</v>
+        <v>0.07645714506103386</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.06545963484693208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08724534680983226</v>
+        <v>0.08724534680983224</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1000715062235378</v>
@@ -1497,7 +1497,7 @@
         <v>0.09460752156176883</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07956145067083699</v>
+        <v>0.079561450670837</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.08148627151801269</v>
@@ -1509,7 +1509,7 @@
         <v>0.08033834681942381</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08330053215029171</v>
+        <v>0.08330053215029168</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05025707604991421</v>
+        <v>0.05050861989498705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07394480960155704</v>
+        <v>0.07458278788812919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05450860479265025</v>
+        <v>0.05415345662866655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06877311623347962</v>
+        <v>0.06853126033863491</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08525021015265603</v>
+        <v>0.08517274082272905</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1037229088241224</v>
+        <v>0.1033512795334113</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08262168620227764</v>
+        <v>0.08210966391292752</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06965480842623742</v>
+        <v>0.06977417430943052</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07127244348573353</v>
+        <v>0.07148197040248386</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09348626632290133</v>
+        <v>0.09339868773269902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0722758361694303</v>
+        <v>0.0716985005480491</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07294451405783228</v>
+        <v>0.0724134750647939</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07798151025217977</v>
+        <v>0.07807269573044473</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1379077920366484</v>
+        <v>0.1316335235896104</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08395157087279209</v>
+        <v>0.08319576744151937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1320872854132434</v>
+        <v>0.130243126377376</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1230703465813386</v>
+        <v>0.1229735932636295</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1349133686899046</v>
+        <v>0.1340757555579991</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1091772501687128</v>
+        <v>0.1084298877845571</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09125825981228732</v>
+        <v>0.09037140945181633</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0943902471240342</v>
+        <v>0.09453047153827127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1276433554046341</v>
+        <v>0.1269950129157241</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09160930520395087</v>
+        <v>0.09098048751048478</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1034882067983365</v>
+        <v>0.1041225192023181</v>
       </c>
     </row>
     <row r="25">
